--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2d249a32412d4a6/Workspace/Power BI Functions Series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{B6D8B537-7161-48AA-B1FD-7208774FC9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3638238E-301E-4CAF-9E3D-EC8E6879709F}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{B6D8B537-7161-48AA-B1FD-7208774FC9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B8C342-DFDB-4BE3-BC16-560F7147E3A2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{2FCAA193-C4D5-446D-B174-C889C4932F58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FCAA193-C4D5-446D-B174-C889C4932F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sales!$A$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,21 +43,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>ProductID</t>
   </si>
   <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Tablet</t>
   </si>
   <si>
     <t>RegionID</t>
@@ -96,6 +88,45 @@
   </si>
   <si>
     <t>SalesDate</t>
+  </si>
+  <si>
+    <t>SM-5933-BK</t>
+  </si>
+  <si>
+    <t>SM-7818-RD</t>
+  </si>
+  <si>
+    <t>SM-5195-BL</t>
+  </si>
+  <si>
+    <t>LT-6308-GR</t>
+  </si>
+  <si>
+    <t>LT-4897-SL</t>
+  </si>
+  <si>
+    <t>LT-7293-BK</t>
+  </si>
+  <si>
+    <t>TB-5412-BL</t>
+  </si>
+  <si>
+    <t>TB-7577-GR</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>TBL-57148-BLK</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Tablet</t>
   </si>
 </sst>
 </file>
@@ -152,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -164,6 +195,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -479,45 +514,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF28D21-A7DD-496F-B80C-EBADAF24A5B5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.7109375" style="2"/>
+    <col min="1" max="1" width="14.7109375" style="2"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="14.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -536,10 +659,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +707,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -597,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -607,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -617,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -829,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091CEE4E-ECFA-4647-A89C-5C12DB166E0D}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -838,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4"/>
     </row>
